--- a/DOC/reg_map.xlsx
+++ b/DOC/reg_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\weld\weld_process\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B95DF6B-2A81-4276-BE24-1E12E1AD259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B6238A-BC95-43FC-A572-FD2B849FEC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
   <si>
     <t>read only</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,19 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>继电器1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继电器2</t>
-  </si>
-  <si>
-    <t>继电器3</t>
-  </si>
-  <si>
-    <t>继电器4</t>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,22 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0：SCH   1：RDY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：IOFF   1：ION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：SGW   1：CTW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：UP      1：DOWN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>释义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,6 +362,59 @@
   </si>
   <si>
     <t>Coils  Registers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接参数组别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：SCH（修改模式）   1：RDY（修改完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：IOFF（电流关闭）   1：ION（电流开启）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：SGW（单点模式）   1：CTW（连点模式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：UP（向上计数）      1：DOWN（向下计数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动继电器1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动继电器2</t>
+  </si>
+  <si>
+    <t>启动继电器3</t>
+  </si>
+  <si>
+    <t>启动继电器4</t>
+  </si>
+  <si>
+    <t>脚踏开关1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏开关2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部启动信号1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -677,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,113 +748,125 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1117,618 +1159,629 @@
     <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="17" style="53" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="52"/>
+      <c r="F1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
-      <c r="C2" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="C2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="28" t="s">
+      <c r="I3" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="28" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="H6" s="44"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="I9" s="48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="46"/>
+      <c r="I11" s="48"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="I12" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="E13" s="20" t="s">
+    <row r="13" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="H13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="I13" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="20" t="s">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="H14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="I14" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="20" t="s">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="G15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="H15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="I15" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="20" t="s">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="G16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="H16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="I16" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="23" t="s">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="G17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="H17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="I17" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="23" t="s">
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="G18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="H18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="I18" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="3" t="s">
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="3" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="26" t="s">
+      <c r="D26" s="52"/>
+      <c r="F26" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="44"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="E28" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="E29" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="E30" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="E31" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="G32" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="G33" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="G34" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="B35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="G35" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>70</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="F26:G27"/>
     <mergeCell ref="A26:B27"/>
-    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H3:H8"/>
     <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOC/reg_map.xlsx
+++ b/DOC/reg_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\weld\weld_process\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E492B-64C6-4C94-AF8C-1A9464B5C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE32256-4C9F-431E-BB3C-96EECF699B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
   <si>
     <t>Holding Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,19 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启动继电器1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动继电器2</t>
-  </si>
-  <si>
-    <t>启动继电器3</t>
-  </si>
-  <si>
-    <t>启动继电器4</t>
-  </si>
-  <si>
     <t>气阀1继电器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,13 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0：启动 1：停止</t>
-  </si>
-  <si>
-    <t>0：启动 1：停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1：启动 0：停止</t>
   </si>
   <si>
@@ -517,6 +497,94 @@
   <si>
     <t>0-65535</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：8</t>
+  </si>
+  <si>
+    <t>addr：9</t>
+  </si>
+  <si>
+    <t>addr：10</t>
+  </si>
+  <si>
+    <t>addr：11</t>
+  </si>
+  <si>
+    <t>KEY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY1</t>
+  </si>
+  <si>
+    <t>START0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏开关0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏开关1</t>
+  </si>
+  <si>
+    <t>外部启动信号0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部启动信号1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：闭合 1：打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：闭合 2：打开</t>
+  </si>
+  <si>
+    <t>0：闭合 3：打开</t>
+  </si>
+  <si>
+    <t>0：闭合 4：打开</t>
+  </si>
+  <si>
+    <t>addr：0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出错报警继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束焊接信号继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变压器继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留输出继电器0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留输出继电器1</t>
+  </si>
+  <si>
+    <t>预留输出继电器2</t>
+  </si>
+  <si>
+    <t>预留输出继电器3</t>
   </si>
 </sst>
 </file>
@@ -557,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,8 +674,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -739,21 +813,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -862,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -912,7 +971,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,6 +981,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,22 +1026,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,44 +1053,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1289,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1312,44 +1377,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="20"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1361,16 +1426,16 @@
       <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
@@ -1380,12 +1445,12 @@
       <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="35"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1395,10 +1460,10 @@
       <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1416,8 +1481,8 @@
       <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="35"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1435,10 +1500,10 @@
       <c r="G7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1456,8 +1521,8 @@
       <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="35"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1470,7 +1535,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>26</v>
@@ -1493,7 +1558,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>27</v>
@@ -1506,74 +1571,68 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="24" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
       <c r="F13" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
       <c r="F14" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>31</v>
@@ -1586,11 +1645,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
       <c r="F15" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>32</v>
@@ -1603,14 +1659,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
       <c r="F16" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>38</v>
@@ -1621,10 +1674,10 @@
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>39</v>
@@ -1635,10 +1688,10 @@
     </row>
     <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>40</v>
@@ -1649,21 +1702,21 @@
     </row>
     <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F20" s="19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>70</v>
@@ -1677,7 +1730,7 @@
     </row>
     <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>52</v>
@@ -1691,7 +1744,7 @@
     </row>
     <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>52</v>
@@ -1704,61 +1757,58 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="20"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="32"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>1</v>
@@ -1769,7 +1819,7 @@
       <c r="H30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="21" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1781,7 +1831,7 @@
         <v>78</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>2</v>
@@ -1792,7 +1842,7 @@
       <c r="H31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1804,10 +1854,10 @@
         <v>79</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>61</v>
@@ -1815,19 +1865,19 @@
       <c r="H32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>85</v>
+      <c r="B33" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>5</v>
@@ -1838,103 +1888,194 @@
       <c r="H33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="F34" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="H35" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="I35" s="28" t="s">
         <v>90</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="48" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>83</v>
+      <c r="B36" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>96</v>
+      <c r="G36" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="49" t="s">
+      <c r="B37" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G37" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:B2"/>

--- a/DOC/reg_map.xlsx
+++ b/DOC/reg_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\weld\weld_process\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE32256-4C9F-431E-BB3C-96EECF699B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510466B9-D802-43EF-AF11-C6DBA1C1ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="148">
   <si>
     <t>Holding Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0：过热 1：正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Radiator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,18 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：异常 1：正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>addr：6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,19 +525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0：闭合 1：打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：闭合 2：打开</t>
-  </si>
-  <si>
-    <t>0：闭合 3：打开</t>
-  </si>
-  <si>
-    <t>0：闭合 4：打开</t>
-  </si>
-  <si>
     <t>addr：0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -585,6 +556,45 @@
   </si>
   <si>
     <t>预留输出继电器3</t>
+  </si>
+  <si>
+    <t>sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热电偶接通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：正常 1：异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：正常 1：过热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：断开 1：闭合</t>
+  </si>
+  <si>
+    <t>0：断开 1：闭合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：12</t>
+  </si>
+  <si>
+    <t>addr：13</t>
+  </si>
+  <si>
+    <t>addr：14</t>
+  </si>
+  <si>
+    <t>addr：15</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1008,6 +1018,27 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,27 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1377,44 +1387,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D1" s="20"/>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="20"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="35"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1426,16 +1436,16 @@
       <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
@@ -1445,12 +1455,12 @@
       <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="44"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1460,10 +1470,10 @@
       <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1481,8 +1491,8 @@
       <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="44"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1500,10 +1510,10 @@
       <c r="G7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="51"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1521,8 +1531,8 @@
       <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="44"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1535,7 +1545,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>26</v>
@@ -1558,7 +1568,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>27</v>
@@ -1581,13 +1591,13 @@
         <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -1604,13 +1614,13 @@
         <v>52</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>54</v>
@@ -1618,13 +1628,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>54</v>
@@ -1632,7 +1642,7 @@
     </row>
     <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>31</v>
@@ -1646,7 +1656,7 @@
     </row>
     <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>32</v>
@@ -1660,10 +1670,10 @@
     </row>
     <row r="16" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>38</v>
@@ -1674,10 +1684,10 @@
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>39</v>
@@ -1688,10 +1698,10 @@
     </row>
     <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>40</v>
@@ -1702,21 +1712,21 @@
     </row>
     <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F20" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>70</v>
@@ -1730,7 +1740,7 @@
     </row>
     <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>52</v>
@@ -1744,7 +1754,7 @@
     </row>
     <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>52</v>
@@ -1767,42 +1777,42 @@
     </row>
     <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="G28" s="44"/>
       <c r="H28" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="20"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="41"/>
+      <c r="I29" s="48"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>77</v>
@@ -1870,13 +1880,13 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="50" t="s">
+      <c r="B33" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>82</v>
       </c>
       <c r="F33" s="17" t="s">
@@ -1893,13 +1903,13 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="51" t="s">
+      <c r="B34" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="36" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -1916,13 +1926,13 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="51" t="s">
+      <c r="B35" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="36" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="26" t="s">
@@ -1935,7 +1945,7 @@
         <v>89</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1952,13 +1962,13 @@
         <v>8</v>
       </c>
       <c r="G36" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="27" t="s">
-        <v>92</v>
-      </c>
       <c r="I36" s="28" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1966,7 +1976,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>81</v>
@@ -1975,105 +1985,161 @@
         <v>9</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="H38" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="49" t="s">
+    </row>
+    <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39" s="47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="48" t="s">
+      <c r="F41" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40" s="47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="48" t="s">
+      <c r="G42" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>135</v>
+      <c r="G43" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/reg_map.xlsx
+++ b/DOC/reg_map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\weld\weld_process\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15473\Desktop\0613-1\weld_process\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510466B9-D802-43EF-AF11-C6DBA1C1ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C69F06-FFD8-4D1E-AC09-E0DD993011CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1366,27 +1366,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>67</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="11" t="s">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="I2" s="42"/>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
       <c r="B4" s="49"/>
       <c r="C4" s="12" t="s">
@@ -1458,7 +1458,7 @@
       <c r="H4" s="49"/>
       <c r="I4" s="51"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="49"/>
       <c r="C5" s="12" t="s">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="H6" s="49"/>
       <c r="I6" s="51"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I7" s="51"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="H8" s="49"/>
       <c r="I8" s="51"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F13" s="6" t="s">
         <v>96</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F14" s="8" t="s">
         <v>97</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F15" s="8" t="s">
         <v>98</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F16" s="8" t="s">
         <v>99</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F17" s="8" t="s">
         <v>101</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F18" s="8" t="s">
         <v>103</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="19" t="s">
         <v>105</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F20" s="19" t="s">
         <v>106</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21" s="3" t="s">
         <v>107</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F22" s="3" t="s">
         <v>108</v>
       </c>
@@ -1766,17 +1766,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I24" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>69</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="40"/>
       <c r="C29" s="11" t="s">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="I29" s="48"/>
     </row>
-    <row r="30" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>128</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>6</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>7</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>9</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>116</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>117</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>118</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>119</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F42" s="30" t="s">
         <v>143</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F43" s="30" t="s">
         <v>144</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F44" s="30" t="s">
         <v>145</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F45" s="30" t="s">
         <v>146</v>
       </c>

--- a/DOC/reg_map.xlsx
+++ b/DOC/reg_map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15473\Desktop\0613-1\weld_process\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\weld\weld_process\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C69F06-FFD8-4D1E-AC09-E0DD993011CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB392DE3-228A-4123-B0BE-F54DF092272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
   <si>
     <t>Holding Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,22 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一阶段设定时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二阶段设定时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三阶段设定时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焊接间隔时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增益1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0-999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,161 +419,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>addr：18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶段设定的温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶段设定的温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阶段设定的温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读/写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-65535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：8</t>
+  </si>
+  <si>
+    <t>addr：9</t>
+  </si>
+  <si>
+    <t>addr：10</t>
+  </si>
+  <si>
+    <t>addr：11</t>
+  </si>
+  <si>
+    <t>KEY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY1</t>
+  </si>
+  <si>
+    <t>START0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏开关0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏开关1</t>
+  </si>
+  <si>
+    <t>外部启动信号0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部启动信号1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出错报警继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束焊接信号继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变压器继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留输出继电器0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留输出继电器1</t>
+  </si>
+  <si>
+    <t>预留输出继电器2</t>
+  </si>
+  <si>
+    <t>预留输出继电器3</t>
+  </si>
+  <si>
+    <t>sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热电偶接通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：正常 1：异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：正常 1：过热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：断开 1：闭合</t>
+  </si>
+  <si>
+    <t>0：断开 1：闭合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：12</t>
+  </si>
+  <si>
+    <t>addr：13</t>
+  </si>
+  <si>
+    <t>addr：14</t>
+  </si>
+  <si>
+    <t>addr：15</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>addr：16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addr：17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr：18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr：19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二阶段设定的温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶段设定的温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三阶段设定的温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读/写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焊接次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-65535</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr：8</t>
-  </si>
-  <si>
-    <t>addr：9</t>
-  </si>
-  <si>
-    <t>addr：10</t>
-  </si>
-  <si>
-    <t>addr：11</t>
-  </si>
-  <si>
-    <t>KEY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY1</t>
-  </si>
-  <si>
-    <t>START0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>START1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚踏开关0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚踏开关1</t>
-  </si>
-  <si>
-    <t>外部启动信号0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部启动信号1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr：0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数继电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出错报警继电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束焊接信号继电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变压器继电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留输出继电器0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留输出继电器1</t>
-  </si>
-  <si>
-    <t>预留输出继电器2</t>
-  </si>
-  <si>
-    <t>预留输出继电器3</t>
-  </si>
-  <si>
-    <t>sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热电偶接通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：正常 1：异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：正常 1：过热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：断开 1：闭合</t>
-  </si>
-  <si>
-    <t>0：断开 1：闭合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr：12</t>
-  </si>
-  <si>
-    <t>addr：13</t>
-  </si>
-  <si>
-    <t>addr：14</t>
-  </si>
-  <si>
-    <t>addr：15</t>
-  </si>
-  <si>
-    <t>/</t>
+  </si>
+  <si>
+    <t>time6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶段快速升温时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶段温度保持时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶段快速升温时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶段温度保持时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度下降时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-19999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-59999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,16 +957,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1366,780 +1389,780 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="F1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="F28" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="47"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="F1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="14" t="s">
+      <c r="H38" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="51"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="10" t="s">
+      <c r="B41" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="F28" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="48"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="28" t="s">
+      <c r="G41" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="30" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="28" t="s">
+      <c r="H42" s="30" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="27" t="s">
+      <c r="I42" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="G43" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="G44" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="29" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I40" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="H42" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>147</v>
+      <c r="G45" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/reg_map.xlsx
+++ b/DOC/reg_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\weld\weld_process\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB392DE3-228A-4123-B0BE-F54DF092272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE7E171-927B-49BE-AE16-A3468C36C8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="164">
   <si>
     <t>Holding Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-100（对应0-1.0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,223 +383,248 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>addr：12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶段设定的温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶段设定的温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阶段设定的温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读/写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-65535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：8</t>
+  </si>
+  <si>
+    <t>addr：9</t>
+  </si>
+  <si>
+    <t>addr：10</t>
+  </si>
+  <si>
     <t>addr：11</t>
+  </si>
+  <si>
+    <t>KEY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY1</t>
+  </si>
+  <si>
+    <t>START0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏开关0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏开关1</t>
+  </si>
+  <si>
+    <t>外部启动信号0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部启动信号1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出错报警继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束焊接信号继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变压器继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留输出继电器0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留输出继电器1</t>
+  </si>
+  <si>
+    <t>预留输出继电器2</t>
+  </si>
+  <si>
+    <t>预留输出继电器3</t>
+  </si>
+  <si>
+    <t>sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热电偶接通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：正常 1：异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：正常 1：过热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：断开 1：闭合</t>
+  </si>
+  <si>
+    <t>0：断开 1：闭合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addr：12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addr：13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addr：14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addr：15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr：18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr：19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二阶段设定的温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶段设定的温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三阶段设定的温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读/写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焊接次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-65535</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr：8</t>
-  </si>
-  <si>
-    <t>addr：9</t>
-  </si>
-  <si>
-    <t>addr：10</t>
-  </si>
-  <si>
-    <t>addr：11</t>
-  </si>
-  <si>
-    <t>KEY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY1</t>
-  </si>
-  <si>
-    <t>START0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>START1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚踏开关0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚踏开关1</t>
-  </si>
-  <si>
-    <t>外部启动信号0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部启动信号1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr：0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数继电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出错报警继电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束焊接信号继电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变压器继电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留输出继电器0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留输出继电器1</t>
-  </si>
-  <si>
-    <t>预留输出继电器2</t>
-  </si>
-  <si>
-    <t>预留输出继电器3</t>
-  </si>
-  <si>
-    <t>sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热电偶接通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：正常 1：异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：正常 1：过热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：断开 1：闭合</t>
-  </si>
-  <si>
-    <t>0：断开 1：闭合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr：12</t>
-  </si>
-  <si>
-    <t>addr：13</t>
-  </si>
-  <si>
-    <t>addr：14</t>
-  </si>
-  <si>
-    <t>addr：15</t>
   </si>
   <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>time6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶段快速升温时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶段温度保持时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶段快速升温时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶段温度保持时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度下降时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-19999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-59999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>addr：16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addr：17</t>
-  </si>
-  <si>
-    <t>time6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶段快速升温时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶段温度保持时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二阶段快速升温时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二阶段温度保持时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度下降时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焊接间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp4</t>
+  </si>
+  <si>
+    <t>保持温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -611,15 +632,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-19999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-59999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-999</t>
+    <t>0-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1000（对应0-10.0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准ModBus-RTU协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令：04H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令：03H（读）   06H（写单个寄存器）   10H（写多个寄存器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令：02H（读）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令：01H（读单个继电器） 05H（写单个继电器） 0FH（写多个继电器）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +664,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,8 +697,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,8 +770,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -953,11 +1013,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1105,6 +1202,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1387,17 +1511,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
@@ -1409,776 +1533,835 @@
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="F1" s="36" t="s">
+    <row r="1" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="F3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="10" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="11" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="G13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="C14" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="G14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="5" t="s">
+      <c r="I15" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="7" t="s">
+      <c r="G24" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="18" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="G25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="I25" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="18" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="F30" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="F31" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="47"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="F28" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="47"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="C37" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="H37" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="34" t="s">
+      <c r="C39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="F40" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="26" t="s">
+      <c r="G40" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="30" t="s">
+      <c r="H42" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>140</v>
+      <c r="I42" s="31" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>75</v>
+      </c>
       <c r="F43" s="29" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>140</v>
+        <v>117</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="F44" s="29" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" s="30" t="s">
-        <v>140</v>
+        <v>118</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F45" s="29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:H4"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I5:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
